--- a/data/international/UK.xlsx
+++ b/data/international/UK.xlsx
@@ -912,7 +912,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -929,6 +929,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
       <u/>
@@ -976,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -995,7 +1000,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1343,7 +1351,10 @@
       <c r="S2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="T2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="V2" s="5" t="b">
@@ -1408,7 +1419,10 @@
       <c r="S3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="T3" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="V3" s="5" t="b">
@@ -1473,7 +1487,10 @@
       <c r="S4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="T4" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="V4" s="5" t="b">
@@ -1538,7 +1555,10 @@
       <c r="S5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="T5" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="U5" s="7" t="s">
         <v>50</v>
       </c>
       <c r="V5" s="5" t="b">
@@ -1603,7 +1623,10 @@
       <c r="S6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="T6" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>54</v>
       </c>
       <c r="V6" s="5" t="b">
@@ -1668,7 +1691,10 @@
       <c r="S7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="T7" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="U7" s="7" t="s">
         <v>59</v>
       </c>
       <c r="V7" s="5" t="b">
@@ -1733,7 +1759,10 @@
       <c r="S8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="T8" s="6">
+        <v>0.29</v>
+      </c>
+      <c r="U8" s="7" t="s">
         <v>66</v>
       </c>
       <c r="V8" s="5" t="b">
@@ -1798,7 +1827,10 @@
       <c r="S9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="T9" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="U9" s="7" t="s">
         <v>71</v>
       </c>
       <c r="V9" s="5" t="b">
@@ -1863,7 +1895,10 @@
       <c r="S10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="T10" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="U10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="V10" s="5" t="b">
@@ -1928,7 +1963,10 @@
       <c r="S11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="T11" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="U11" s="7" t="s">
         <v>80</v>
       </c>
       <c r="V11" s="5" t="b">
@@ -1993,7 +2031,10 @@
       <c r="S12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="T12" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="U12" s="7" t="s">
         <v>84</v>
       </c>
       <c r="V12" s="5" t="b">
@@ -2058,7 +2099,10 @@
       <c r="S13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="T13" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="U13" s="7" t="s">
         <v>88</v>
       </c>
       <c r="V13" s="5" t="b">
@@ -2123,7 +2167,10 @@
       <c r="S14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="T14" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="U14" s="7" t="s">
         <v>92</v>
       </c>
       <c r="V14" s="5" t="b">
@@ -2188,7 +2235,10 @@
       <c r="S15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="T15" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="U15" s="7" t="s">
         <v>96</v>
       </c>
       <c r="V15" s="5" t="b">
@@ -2253,7 +2303,10 @@
       <c r="S16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U16" s="6" t="s">
+      <c r="T16" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="U16" s="7" t="s">
         <v>100</v>
       </c>
       <c r="V16" s="5" t="b">
@@ -2318,7 +2371,10 @@
       <c r="S17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="U17" s="6" t="s">
+      <c r="T17" s="6">
+        <v>0.28</v>
+      </c>
+      <c r="U17" s="7" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="5" t="b">
@@ -2383,7 +2439,10 @@
       <c r="S18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U18" s="6" t="s">
+      <c r="T18" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="U18" s="7" t="s">
         <v>108</v>
       </c>
       <c r="V18" s="5" t="b">
@@ -2448,7 +2507,10 @@
       <c r="S19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="T19" s="6">
+        <v>0.29</v>
+      </c>
+      <c r="U19" s="7" t="s">
         <v>112</v>
       </c>
       <c r="V19" s="5" t="b">
@@ -2513,7 +2575,10 @@
       <c r="S20" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="U20" s="6" t="s">
+      <c r="T20" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="U20" s="7" t="s">
         <v>117</v>
       </c>
       <c r="V20" s="5" t="b">
@@ -2578,7 +2643,10 @@
       <c r="S21" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="T21" s="6">
+        <v>0.29</v>
+      </c>
+      <c r="U21" s="7" t="s">
         <v>123</v>
       </c>
       <c r="V21" s="5" t="b">
@@ -2643,7 +2711,10 @@
       <c r="S22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U22" s="6" t="s">
+      <c r="T22" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="U22" s="7" t="s">
         <v>127</v>
       </c>
       <c r="V22" s="5" t="b">
@@ -2708,7 +2779,10 @@
       <c r="S23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U23" s="6" t="s">
+      <c r="T23" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="U23" s="7" t="s">
         <v>133</v>
       </c>
       <c r="V23" s="5" t="b">
@@ -2773,7 +2847,10 @@
       <c r="S24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U24" s="6" t="s">
+      <c r="T24" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="U24" s="7" t="s">
         <v>138</v>
       </c>
       <c r="V24" s="5" t="b">
@@ -2838,7 +2915,10 @@
       <c r="S25" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="U25" s="6" t="s">
+      <c r="T25" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="U25" s="7" t="s">
         <v>144</v>
       </c>
       <c r="V25" s="5" t="b">
@@ -2903,7 +2983,10 @@
       <c r="S26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="U26" s="6" t="s">
+      <c r="T26" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="U26" s="7" t="s">
         <v>148</v>
       </c>
       <c r="V26" s="5" t="b">
@@ -2968,7 +3051,10 @@
       <c r="S27" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="U27" s="6" t="s">
+      <c r="T27" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="U27" s="7" t="s">
         <v>155</v>
       </c>
       <c r="V27" s="5" t="b">
@@ -3033,7 +3119,10 @@
       <c r="S28" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="U28" s="6" t="s">
+      <c r="T28" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="U28" s="7" t="s">
         <v>162</v>
       </c>
       <c r="V28" s="5" t="b">
@@ -3098,7 +3187,10 @@
       <c r="S29" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="U29" s="6" t="s">
+      <c r="T29" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="U29" s="7" t="s">
         <v>167</v>
       </c>
       <c r="V29" s="5" t="b">
@@ -3163,7 +3255,10 @@
       <c r="S30" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="U30" s="6" t="s">
+      <c r="T30" s="6">
+        <v>0.29</v>
+      </c>
+      <c r="U30" s="7" t="s">
         <v>172</v>
       </c>
       <c r="V30" s="5" t="b">
@@ -3228,7 +3323,10 @@
       <c r="S31" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="U31" s="6" t="s">
+      <c r="T31" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="U31" s="7" t="s">
         <v>178</v>
       </c>
       <c r="V31" s="5" t="b">
@@ -3293,8 +3391,10 @@
       <c r="S32" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="T32" s="7"/>
-      <c r="U32" s="6" t="s">
+      <c r="T32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="U32" s="7" t="s">
         <v>183</v>
       </c>
       <c r="V32" s="5" t="b">
@@ -3359,7 +3459,10 @@
       <c r="S33" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="U33" s="6" t="s">
+      <c r="T33" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="U33" s="7" t="s">
         <v>190</v>
       </c>
       <c r="V33" s="5" t="b">
@@ -3424,7 +3527,10 @@
       <c r="S34" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="U34" s="6" t="s">
+      <c r="T34" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="U34" s="7" t="s">
         <v>195</v>
       </c>
       <c r="V34" s="5" t="b">
@@ -3489,8 +3595,10 @@
       <c r="S35" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="T35" s="7"/>
-      <c r="U35" s="6" t="s">
+      <c r="T35" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="U35" s="7" t="s">
         <v>200</v>
       </c>
       <c r="V35" s="5" t="b">
@@ -3555,48 +3663,158 @@
       <c r="S36" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="U36" s="6" t="s">
+      <c r="T36" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="U36" s="7" t="s">
         <v>204</v>
       </c>
       <c r="V36" s="5" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="39">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="S41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="S43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="S45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="S47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="S48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="S49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="S50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="S51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="S52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="S53" s="3"/>
+    </row>
+    <row r="54">
+      <c r="S54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="S57" s="3"/>
+    </row>
+    <row r="58">
+      <c r="S58" s="3"/>
+    </row>
+    <row r="59">
+      <c r="S59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="S60" s="3"/>
+    </row>
+    <row r="61">
+      <c r="S61" s="3"/>
+    </row>
+    <row r="62">
+      <c r="S62" s="3"/>
+    </row>
+    <row r="63">
+      <c r="S63" s="3"/>
+    </row>
+    <row r="64">
+      <c r="S64" s="3"/>
+    </row>
+    <row r="65">
+      <c r="S65" s="3"/>
+    </row>
+    <row r="66">
+      <c r="S66" s="3"/>
+    </row>
+    <row r="67">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68">
+      <c r="S68" s="3"/>
+    </row>
+    <row r="69">
+      <c r="S69" s="3"/>
+      <c r="T69" s="8"/>
+    </row>
+    <row r="70">
+      <c r="S70" s="3"/>
+    </row>
+    <row r="71">
+      <c r="S71" s="3"/>
+    </row>
+    <row r="72">
+      <c r="S72" s="3"/>
+      <c r="T72" s="8"/>
+    </row>
+    <row r="73">
+      <c r="S73" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
+  <mergeCells count="32">
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S41:T41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="U2"/>
